--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,51 +887,57 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -923,14 +945,17 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,13 +964,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -960,16 +986,19 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,16 +1018,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,16 +1133,19 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1121,13 +1163,16 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,13 +1232,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1208,18 +1259,21 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1237,13 +1291,16 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,13 +1456,16 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1411,13 +1483,16 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,13 +1520,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1469,47 +1547,53 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,13 +1619,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1661,8 +1759,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1679,13 +1777,16 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,37 +1873,43 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1864,8 +1983,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1879,11 +1998,14 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,13 +2033,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,13 +2095,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,7 +2137,7 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -2019,13 +2152,16 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2036,59 +2172,65 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>2200</v>
@@ -2109,10 +2251,13 @@
         <v>2200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3200</v>
       </c>
       <c r="F66" s="3">
         <v>3200</v>
       </c>
       <c r="G66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H66" s="3">
         <v>3100</v>
       </c>
       <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-3000</v>
       </c>
       <c r="F72" s="3">
         <v>-3000</v>
       </c>
       <c r="G72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2800</v>
       </c>
       <c r="I72" s="3">
         <v>-2800</v>
       </c>
       <c r="J72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3200</v>
       </c>
       <c r="F76" s="3">
         <v>-3200</v>
       </c>
       <c r="G76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3000</v>
       </c>
       <c r="I76" s="3">
         <v>-3000</v>
       </c>
       <c r="J76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,47 +2747,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -2617,13 +2811,16 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2830,16 +3046,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,13 +3338,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3117,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,13 +3402,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,72 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -748,16 +756,22 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -780,16 +794,22 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +924,90 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,20 +1017,22 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -989,27 +1043,33 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1021,16 +1081,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,13 +1109,15 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1075,16 +1143,22 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1136,23 +1216,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
@@ -1166,13 +1252,19 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,20 +1333,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
@@ -1262,25 +1366,31 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
@@ -1294,13 +1404,19 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,13 +1561,19 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1459,20 +1599,26 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
@@ -1486,13 +1632,19 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,20 +1675,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
@@ -1550,50 +1708,62 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,19 +1792,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1727,20 +1919,20 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1748,19 +1940,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1780,19 +1978,25 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,19 +2092,25 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1902,14 +2124,20 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1986,11 +2226,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2001,11 +2241,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2045,10 +2297,10 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,10 +2367,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2128,22 +2390,28 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -2155,88 +2423,106 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2200</v>
       </c>
       <c r="G61" s="3">
         <v>2200</v>
@@ -2254,10 +2540,16 @@
         <v>2200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="M61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,57 +3128,69 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
@@ -2814,13 +3204,19 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2844,20 +3242,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,16 +3453,22 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3049,16 +3483,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3621,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,10 +3842,10 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3365,16 +3857,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3417,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,8 +780,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -800,19 +807,22 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,17 +1005,17 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1000,14 +1023,17 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,23 +1045,24 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1049,31 +1076,34 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1087,16 +1117,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,13 +1144,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1149,20 +1183,23 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,11 +1236,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1222,11 +1262,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,13 +1277,13 @@
         <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1258,13 +1301,16 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1388,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,13 +1400,13 @@
         <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1372,13 +1424,16 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,13 +1441,13 @@
         <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1410,13 +1465,16 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,13 +1634,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1605,8 +1675,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,13 +1687,13 @@
         <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1638,13 +1711,16 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,13 +1769,13 @@
         <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1714,56 +1793,62 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,22 +1880,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,19 +2001,22 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -1934,8 +2030,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,22 +2083,25 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,28 +2165,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +2223,8 @@
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,25 +2329,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2247,11 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,23 +2411,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2373,7 +2504,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2396,25 +2527,28 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
@@ -2429,24 +2563,27 @@
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -2455,63 +2592,69 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2522,10 +2665,10 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2200</v>
       </c>
       <c r="H61" s="3">
         <v>2200</v>
@@ -2546,10 +2689,13 @@
         <v>2200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3200</v>
       </c>
       <c r="I66" s="3">
         <v>3200</v>
       </c>
       <c r="J66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-3000</v>
       </c>
       <c r="I72" s="3">
         <v>-3000</v>
       </c>
       <c r="J72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-2800</v>
       </c>
       <c r="L72" s="3">
         <v>-2800</v>
       </c>
       <c r="M72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-1400</v>
       </c>
       <c r="F76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3200</v>
       </c>
       <c r="I76" s="3">
         <v>-3200</v>
       </c>
       <c r="J76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3000</v>
       </c>
       <c r="L76" s="3">
         <v>-3000</v>
       </c>
       <c r="M76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,13 +3381,13 @@
         <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3210,13 +3405,16 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,8 +3441,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3257,8 +3456,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,20 +3673,23 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3489,16 +3706,19 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,19 +3854,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3653,8 +3883,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,23 +4076,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3863,16 +4109,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3918,14 +4170,14 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,11 +740,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -783,8 +789,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,38 +980,41 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,17 +1030,17 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1026,14 +1048,17 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,26 +1071,27 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1079,16 +1105,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1099,14 +1128,14 @@
         <v>-600</v>
       </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1120,16 +1149,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,14 +1231,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,11 +1278,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1265,28 +1304,31 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
       </c>
       <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1304,13 +1346,16 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,25 +1439,28 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-600</v>
       </c>
       <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1427,30 +1478,33 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1468,13 +1522,16 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,25 +1747,28 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-600</v>
       </c>
       <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1714,13 +1786,16 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,25 +1835,28 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-600</v>
       </c>
       <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1796,59 +1874,65 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,25 +1966,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2013,13 +2108,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2033,8 +2128,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,25 +2184,28 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,17 +2272,20 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,8 +2298,8 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2209,13 +2316,16 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2226,8 +2336,8 @@
       <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2370,11 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,26 +2536,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2507,7 +2637,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2530,28 +2660,31 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
@@ -2566,27 +2699,30 @@
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -2595,66 +2731,72 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
       </c>
       <c r="K60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,10 +2810,10 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2200</v>
       </c>
       <c r="I61" s="3">
         <v>2200</v>
@@ -2692,10 +2834,13 @@
         <v>2200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3200</v>
       </c>
       <c r="J66" s="3">
         <v>3200</v>
       </c>
       <c r="K66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="L66" s="3">
         <v>3100</v>
       </c>
       <c r="M66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-3000</v>
       </c>
       <c r="J72" s="3">
         <v>-3000</v>
       </c>
       <c r="K72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-2800</v>
       </c>
       <c r="M72" s="3">
         <v>-2800</v>
       </c>
       <c r="N72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1400</v>
       </c>
       <c r="F76" s="3">
         <v>-1400</v>
       </c>
       <c r="G76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3200</v>
       </c>
       <c r="J76" s="3">
         <v>-3200</v>
       </c>
       <c r="K76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3000</v>
       </c>
       <c r="M76" s="3">
         <v>-3000</v>
       </c>
       <c r="N76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,71 +3514,77 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-600</v>
       </c>
       <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -3408,13 +3602,16 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,8 +3642,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3459,8 +3657,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,23 +3889,26 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3709,16 +3925,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,31 +3953,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,22 +4083,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3886,8 +4115,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,26 +4321,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4112,16 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,26 +4409,29 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,14 +744,14 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -775,13 +779,16 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -792,8 +799,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,16 +838,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,38 +1003,41 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1033,17 +1056,17 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1051,14 +1074,17 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,29 +1098,30 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1108,16 +1135,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,20 +1155,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-2000</v>
       </c>
       <c r="F18" s="3">
         <v>-600</v>
       </c>
       <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1152,16 +1182,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,17 +1268,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,17 +1315,17 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1307,31 +1347,34 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F23" s="3">
         <v>-600</v>
       </c>
       <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1349,13 +1392,16 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,28 +1491,31 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F26" s="3">
         <v>-600</v>
       </c>
       <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1481,33 +1533,36 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F27" s="3">
         <v>-600</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1525,13 +1580,16 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,28 +1820,31 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F33" s="3">
         <v>-600</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1789,13 +1862,16 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,28 +1914,31 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F35" s="3">
         <v>-600</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1877,62 +1956,68 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,28 +2053,29 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,13 +2207,13 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2131,8 +2227,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,28 +2286,31 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,11 +2392,11 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2301,8 +2409,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,7 +2439,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2339,8 +2450,8 @@
       <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2492,11 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2662,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2749,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2640,7 +2771,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2663,31 +2794,34 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
       </c>
       <c r="J58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -2702,30 +2836,33 @@
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -2734,74 +2871,80 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
       </c>
       <c r="L60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -2813,10 +2956,10 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2200</v>
       </c>
       <c r="J61" s="3">
         <v>2200</v>
@@ -2837,10 +2980,13 @@
         <v>2200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
       </c>
       <c r="L66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="M66" s="3">
         <v>3100</v>
       </c>
       <c r="N66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-3000</v>
       </c>
       <c r="K72" s="3">
         <v>-3000</v>
       </c>
       <c r="L72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-2800</v>
       </c>
       <c r="N72" s="3">
         <v>-2800</v>
       </c>
       <c r="O72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1400</v>
       </c>
       <c r="G76" s="3">
         <v>-1400</v>
       </c>
       <c r="H76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3200</v>
       </c>
       <c r="K76" s="3">
         <v>-3200</v>
       </c>
       <c r="L76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3000</v>
       </c>
       <c r="N76" s="3">
         <v>-3000</v>
       </c>
       <c r="O76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,77 +3706,83 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F81" s="3">
         <v>-600</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3605,13 +3800,16 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3645,8 +3844,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3660,8 +3859,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,26 +4106,29 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3928,16 +4145,19 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3980,8 +4201,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4313,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>-100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -4118,8 +4348,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4567,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4360,16 +4606,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,29 +4661,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,17 +748,17 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -782,16 +786,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -802,8 +809,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -829,28 +836,31 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,38 +1026,41 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,11 +1068,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1059,17 +1082,17 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1077,14 +1100,17 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,23 +1135,23 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1138,16 +1165,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,23 +1185,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1185,16 +1215,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,20 +1305,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,20 +1355,20 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1350,11 +1390,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,22 +1405,22 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1395,13 +1438,16 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,22 +1555,22 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
       </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1536,13 +1588,16 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,22 +1605,22 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
       </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1583,13 +1638,16 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,22 +1905,22 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
       </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1865,13 +1938,16 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,22 +2005,22 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
       </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1959,65 +2038,71 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,31 +2140,32 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2210,13 +2306,13 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2230,8 +2326,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,31 +2388,34 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,11 +2503,11 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2412,8 +2520,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,7 +2553,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2453,8 +2564,8 @@
       <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2615,11 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,32 +2788,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,16 +2880,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2774,7 +2905,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2797,34 +2928,37 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
@@ -2839,13 +2973,16 @@
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2874,72 +3011,78 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,7 +3090,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -2959,10 +3102,10 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2200</v>
       </c>
       <c r="K61" s="3">
         <v>2200</v>
@@ -2983,10 +3126,13 @@
         <v>2200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3200</v>
       </c>
       <c r="L66" s="3">
         <v>3200</v>
       </c>
       <c r="M66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="N66" s="3">
         <v>3100</v>
       </c>
       <c r="O66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-3000</v>
       </c>
       <c r="L72" s="3">
         <v>-3000</v>
       </c>
       <c r="M72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2800</v>
       </c>
       <c r="O72" s="3">
         <v>-2800</v>
       </c>
       <c r="P72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1400</v>
       </c>
       <c r="H76" s="3">
         <v>-1400</v>
       </c>
       <c r="I76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3200</v>
       </c>
       <c r="L76" s="3">
         <v>-3200</v>
       </c>
       <c r="M76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3000</v>
       </c>
       <c r="O76" s="3">
         <v>-3000</v>
       </c>
       <c r="P76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,22 +3965,22 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
       </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3803,13 +3998,16 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,19 +4035,19 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3862,8 +4061,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,29 +4323,32 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4148,16 +4365,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,11 +4405,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4204,8 +4425,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,19 +4555,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4351,8 +4581,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,32 +4813,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4609,16 +4855,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,32 +4913,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,17 +755,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -789,19 +793,22 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -812,8 +819,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -839,31 +846,34 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,38 +1049,41 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,11 +1094,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1085,17 +1108,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1103,14 +1126,17 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,23 +1165,23 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1168,16 +1195,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,23 +1218,23 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1218,16 +1248,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,20 +1345,20 @@
         <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,32 +1383,35 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1393,37 +1433,40 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1441,13 +1484,16 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,34 +1595,37 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
       <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1591,39 +1643,42 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
       </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1641,13 +1696,16 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,34 +1966,37 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1941,13 +2014,16 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,34 +2072,37 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2041,68 +2120,74 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,34 +2227,35 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2309,13 +2405,13 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2329,8 +2425,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2341,31 +2437,34 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2391,34 +2490,37 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,13 +2596,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2506,11 +2614,11 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2523,8 +2631,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2556,7 +2667,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -2567,8 +2678,8 @@
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2585,14 +2696,17 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2738,11 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,35 +2914,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,10 +3021,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2908,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2931,37 +3062,40 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
@@ -2976,36 +3110,39 @@
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3014,75 +3151,81 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3236,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3105,10 +3248,10 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2200</v>
       </c>
       <c r="L61" s="3">
         <v>2200</v>
@@ -3129,10 +3272,13 @@
         <v>2200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3200</v>
       </c>
       <c r="M66" s="3">
         <v>3200</v>
       </c>
       <c r="N66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="O66" s="3">
         <v>3100</v>
       </c>
       <c r="P66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-3000</v>
       </c>
       <c r="M72" s="3">
         <v>-3000</v>
       </c>
       <c r="N72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2800</v>
       </c>
       <c r="P72" s="3">
         <v>-2800</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1400</v>
       </c>
       <c r="I76" s="3">
         <v>-1400</v>
       </c>
       <c r="J76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3200</v>
       </c>
       <c r="M76" s="3">
         <v>-3200</v>
       </c>
       <c r="N76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-3000</v>
       </c>
       <c r="P76" s="3">
         <v>-3000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2900</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,89 +4090,95 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -4001,13 +4196,16 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,19 +4237,19 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4064,8 +4263,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,32 +4540,35 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4368,16 +4585,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,23 +4616,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4428,8 +4649,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,31 +4773,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4584,8 +4814,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5059,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4858,16 +5104,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,35 +5165,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -770,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -796,16 +803,22 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -813,8 +826,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -822,11 +835,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -849,25 +862,31 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -875,11 +894,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1097,46 +1142,52 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,41 +1204,43 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1198,16 +1251,22 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,32 +1274,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1251,16 +1310,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1333,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,29 +1415,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1459,14 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,29 +1474,29 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1436,43 +1515,49 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1487,13 +1572,19 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,40 +1695,46 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1646,45 +1749,51 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1699,13 +1808,19 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1969,40 +2108,46 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2017,13 +2162,19 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,40 +2226,46 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2123,71 +2280,83 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,41 +2399,43 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2408,16 +2599,16 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2428,11 +2619,11 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2440,19 +2631,25 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2466,11 +2663,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2493,41 +2690,47 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,32 +2808,38 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2634,11 +2849,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2670,10 +2891,10 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2681,11 +2902,11 @@
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2699,14 +2920,20 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2861,11 +3100,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,40 +3162,46 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,25 +3271,27 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3042,10 +3303,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3065,43 +3326,49 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -3113,119 +3380,137 @@
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3239,10 +3524,10 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -3251,13 +3536,13 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>2200</v>
       </c>
       <c r="N61" s="3">
         <v>2200</v>
@@ -3275,33 +3560,39 @@
         <v>2200</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2900</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,98 +4470,110 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4199,13 +4588,19 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,22 +4637,22 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4266,11 +4663,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,38 +4970,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4588,16 +5021,22 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,29 +5056,31 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4652,11 +5093,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,37 +5229,43 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4817,11 +5276,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,40 +5547,46 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5107,16 +5598,22 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,31 +5665,37 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
@@ -5201,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5219,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,17 +775,17 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,14 +830,14 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -841,8 +848,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,26 +892,26 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,41 +1114,44 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,11 +1171,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1162,17 +1185,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1180,14 +1203,17 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,19 +1232,20 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1227,23 +1254,23 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1257,16 +1284,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,10 +1304,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
@@ -1286,23 +1316,23 @@
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-600</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1316,16 +1346,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,14 +1390,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,32 +1452,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,13 +1502,16 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
@@ -1480,26 +1520,26 @@
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1521,46 +1561,49 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1578,13 +1621,16 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,43 +1750,46 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1755,48 +1807,51 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1814,13 +1869,16 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,14 +2134,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2114,43 +2184,46 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-600</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2168,13 +2241,16 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,43 +2308,46 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-600</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2286,77 +2365,83 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,43 +2487,44 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2605,13 +2701,13 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2625,8 +2721,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2651,8 +2750,8 @@
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2669,8 +2768,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2696,43 +2795,46 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,22 +2919,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -2838,11 +2946,11 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2855,8 +2963,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2897,7 +3008,7 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2908,8 +3019,8 @@
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3106,11 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,44 +3291,47 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,28 +3403,29 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3309,7 +3440,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3332,46 +3463,49 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
       </c>
       <c r="M58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
       </c>
       <c r="O58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
@@ -3386,45 +3520,48 @@
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -3433,84 +3570,90 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3530,7 +3673,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
@@ -3542,10 +3685,10 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2200</v>
       </c>
       <c r="O61" s="3">
         <v>2200</v>
@@ -3566,21 +3709,24 @@
         <v>2200</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3594,8 +3740,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3200</v>
       </c>
       <c r="P66" s="3">
         <v>3200</v>
       </c>
       <c r="Q66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="R66" s="3">
         <v>3100</v>
       </c>
       <c r="S66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,58 +4305,61 @@
         <v>-10100</v>
       </c>
       <c r="E72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-3000</v>
       </c>
       <c r="P72" s="3">
         <v>-3000</v>
       </c>
       <c r="Q72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-2800</v>
       </c>
       <c r="S72" s="3">
         <v>-2800</v>
       </c>
       <c r="T72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,58 +4553,61 @@
         <v>-2900</v>
       </c>
       <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1400</v>
       </c>
       <c r="L76" s="3">
         <v>-1400</v>
       </c>
       <c r="M76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-3200</v>
       </c>
       <c r="P76" s="3">
         <v>-3200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-3000</v>
       </c>
       <c r="S76" s="3">
         <v>-3000</v>
       </c>
       <c r="T76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U76" s="3">
         <v>-2900</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,107 +4665,113 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-600</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4594,13 +4789,16 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4643,19 +4842,19 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4868,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,41 +5190,44 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5027,16 +5244,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,32 +5278,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5099,8 +5320,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,40 +5462,43 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -5282,8 +5512,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,44 +5796,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5604,16 +5850,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,44 +5920,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,17 +782,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,14 +840,14 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -851,8 +858,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,26 +905,26 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,41 +1137,44 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1174,11 +1197,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1188,17 +1211,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1206,14 +1229,17 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,22 +1259,23 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1257,23 +1284,23 @@
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1287,16 +1314,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
@@ -1319,23 +1349,23 @@
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
       <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1349,16 +1379,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,17 +1424,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,35 +1489,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,16 +1542,19 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
@@ -1523,26 +1563,26 @@
         <v>700</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1564,49 +1604,52 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-600</v>
       </c>
       <c r="M23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1624,13 +1667,16 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,46 +1802,49 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-600</v>
       </c>
       <c r="M26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1810,51 +1862,54 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-600</v>
       </c>
       <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1872,13 +1927,16 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,17 +2204,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2187,46 +2257,49 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-600</v>
       </c>
       <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2244,13 +2317,16 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,46 +2387,49 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-600</v>
       </c>
       <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2368,80 +2447,86 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,46 +2574,47 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2704,13 +2800,13 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2724,8 +2820,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2753,8 +2852,8 @@
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2771,8 +2870,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2798,46 +2897,49 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2931,16 +3039,16 @@
         <v>1900</v>
       </c>
       <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -2949,11 +3057,11 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2966,8 +3074,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3011,7 +3122,7 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -3022,8 +3133,8 @@
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3040,14 +3151,17 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3229,11 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,47 +3417,50 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,31 +3534,32 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3443,7 +3574,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3466,49 +3597,52 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
       <c r="P58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
@@ -3523,48 +3657,51 @@
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1200</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3573,25 +3710,28 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3599,61 +3739,64 @@
         <v>4900</v>
       </c>
       <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3676,7 +3819,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -3688,10 +3831,10 @@
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2200</v>
       </c>
       <c r="P61" s="3">
         <v>2200</v>
@@ -3712,10 +3855,13 @@
         <v>2200</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3723,13 +3869,13 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3743,8 +3889,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3200</v>
       </c>
       <c r="Q66" s="3">
         <v>3200</v>
       </c>
       <c r="R66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="S66" s="3">
         <v>3100</v>
       </c>
       <c r="T66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="E72" s="3">
         <v>-10100</v>
       </c>
       <c r="F72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q72" s="3">
         <v>-3000</v>
       </c>
       <c r="R72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-2800</v>
       </c>
       <c r="T72" s="3">
         <v>-2800</v>
       </c>
       <c r="U72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="E76" s="3">
         <v>-2900</v>
       </c>
       <c r="F76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1400</v>
       </c>
       <c r="M76" s="3">
         <v>-1400</v>
       </c>
       <c r="N76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q76" s="3">
         <v>-3200</v>
       </c>
       <c r="R76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-3000</v>
       </c>
       <c r="T76" s="3">
         <v>-3000</v>
       </c>
       <c r="U76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2900</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,113 +4857,119 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-600</v>
       </c>
       <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4792,13 +4987,16 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4845,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4871,8 +5070,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,44 +5407,47 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5247,16 +5464,19 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,26 +5509,26 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5323,8 +5544,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,34 +5704,34 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -5515,8 +5745,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,47 +6042,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5853,16 +6099,19 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,47 +6172,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,108 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -797,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -823,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,8 +856,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -852,8 +865,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -861,11 +874,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -888,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,17 +927,17 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -926,11 +945,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -953,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,41 +1179,47 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1200,46 +1245,52 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,53 +1311,55 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1317,16 +1370,22 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,44 +1393,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1382,16 +1441,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,23 +1491,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1480,8 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1489,41 +1562,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1545,50 +1618,56 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1607,55 +1686,61 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1670,13 +1755,19 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,52 +1902,58 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1865,57 +1968,63 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1930,13 +2039,19 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,23 +2343,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2260,52 +2399,58 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2320,13 +2465,19 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,52 +2541,58 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2450,83 +2607,95 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2746,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2584,44 +2757,44 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2640,8 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2803,16 +2994,16 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2823,11 +3014,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -2835,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2855,11 +3052,11 @@
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2873,11 +3070,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2900,53 +3097,59 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2965,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,44 +3239,50 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>1900</v>
       </c>
       <c r="F48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3077,11 +3292,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3095,8 +3310,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3125,10 +3346,10 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -3136,11 +3357,11 @@
       <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3154,14 +3375,20 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3352,11 +3591,17 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,52 +3665,58 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3485,8 +3736,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,37 +3794,39 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3577,10 +3838,10 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3600,55 +3861,61 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
@@ -3660,143 +3927,161 @@
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
-        <v>1200</v>
-      </c>
       <c r="F59" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3822,10 +4107,10 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
@@ -3834,13 +4119,13 @@
         <v>300</v>
       </c>
       <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
         <v>500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2200</v>
       </c>
       <c r="R61" s="3">
         <v>2200</v>
@@ -3858,10 +4143,16 @@
         <v>2200</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="X61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3872,17 +4163,17 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3892,11 +4183,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3925,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2900</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,122 +5237,134 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4990,13 +5379,19 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5047,22 +5444,22 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -5073,11 +5470,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5085,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,50 +5837,56 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5467,16 +5900,22 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5509,32 +5950,32 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5547,11 +5988,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5565,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5704,40 +6163,40 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F94" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -5748,11 +6207,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5760,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6530,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6054,43 +6545,43 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6102,16 +6593,22 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,43 +6672,49 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
@@ -6220,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6238,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RTSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>RTSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,17 +802,17 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -862,14 +869,14 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -880,8 +887,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,26 +943,26 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,41 +1205,44 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,11 +1274,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1265,17 +1288,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
@@ -1283,14 +1306,17 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,22 +1349,22 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1346,23 +1373,23 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1376,16 +1403,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,22 +1423,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1417,23 +1447,23 @@
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1447,16 +1477,19 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,26 +1525,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1587,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,44 +1599,44 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,13 +1676,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
@@ -1651,26 +1691,26 @@
         <v>700</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1692,58 +1732,61 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-600</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1761,13 +1804,16 @@
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,55 +1957,58 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-600</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1974,60 +2026,63 @@
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2045,13 +2100,16 @@
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,26 +2413,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2405,55 +2475,58 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2471,13 +2544,16 @@
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,55 +2623,58 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2613,89 +2692,95 @@
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2763,40 +2850,40 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,31 +2980,34 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3000,13 +3096,13 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -3020,8 +3116,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3058,8 +3157,8 @@
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -3076,8 +3175,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,46 +3214,46 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3362,7 @@
         <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
@@ -3263,16 +3371,16 @@
         <v>1900</v>
       </c>
       <c r="H48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -3281,11 +3389,11 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3298,8 +3406,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3352,7 +3463,7 @@
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -3363,8 +3474,8 @@
       <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>300</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -3381,14 +3492,17 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3597,11 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,56 +3794,59 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2300</v>
       </c>
       <c r="F54" s="3">
         <v>2300</v>
       </c>
       <c r="G54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,40 +3926,41 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3844,7 +3975,7 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,46 +4013,46 @@
         <v>3300</v>
       </c>
       <c r="F58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
       </c>
       <c r="Q58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R58" s="3">
         <v>800</v>
       </c>
       <c r="S58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
@@ -3933,57 +4067,60 @@
         <v>700</v>
       </c>
       <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3992,96 +4129,102 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4900</v>
       </c>
       <c r="G60" s="3">
         <v>4900</v>
       </c>
       <c r="H60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1000</v>
       </c>
       <c r="U60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V60" s="3">
         <v>900</v>
       </c>
       <c r="W60" s="3">
+        <v>900</v>
+      </c>
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4113,7 +4256,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -4125,10 +4268,10 @@
         <v>300</v>
       </c>
       <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
         <v>500</v>
-      </c>
-      <c r="R61" s="3">
-        <v>2200</v>
       </c>
       <c r="S61" s="3">
         <v>2200</v>
@@ -4149,15 +4292,18 @@
         <v>2200</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -4169,13 +4315,13 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4189,8 +4335,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5400</v>
       </c>
       <c r="F66" s="3">
         <v>5400</v>
       </c>
       <c r="G66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3200</v>
       </c>
       <c r="T66" s="3">
         <v>3200</v>
       </c>
       <c r="U66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="V66" s="3">
         <v>3100</v>
       </c>
       <c r="W66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2900</v>
       </c>
-      <c r="Y66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,70 +5000,73 @@
         <v>-10100</v>
       </c>
       <c r="E72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-10100</v>
       </c>
       <c r="H72" s="3">
         <v>-10100</v>
       </c>
       <c r="I72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-3000</v>
       </c>
       <c r="T72" s="3">
         <v>-3000</v>
       </c>
       <c r="U72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2900</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-2800</v>
       </c>
       <c r="W72" s="3">
         <v>-2800</v>
       </c>
       <c r="X72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3100</v>
       </c>
       <c r="F76" s="3">
         <v>-3100</v>
       </c>
       <c r="G76" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="H76" s="3">
         <v>-2900</v>
       </c>
       <c r="I76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1400</v>
       </c>
       <c r="P76" s="3">
         <v>-1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-3200</v>
       </c>
       <c r="T76" s="3">
         <v>-3200</v>
       </c>
       <c r="U76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-3000</v>
       </c>
       <c r="W76" s="3">
         <v>-3000</v>
       </c>
       <c r="X76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,131 +5432,137 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5385,13 +5580,16 @@
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5450,19 +5649,19 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5476,8 +5675,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5852,44 +6069,44 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5906,16 +6123,19 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,35 +6171,35 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5994,8 +6215,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,43 +6393,43 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -6213,8 +6443,8 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,56 +6779,59 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6599,16 +6845,19 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6690,44 +6942,44 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
